--- a/data/trans_orig/P32A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C449CFC-3BF4-470F-A90E-874004B296B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5890764E-FE79-40E4-9AAE-31C62EF6EA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D54AACD4-36C9-4FAB-80F5-75F89C336840}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{244EEEB2-4A2C-4EDC-9F58-79B698B31FE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="361">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,41%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>99,31%</t>
   </si>
   <si>
-    <t>97,59%</t>
+    <t>97,77%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,46%</t>
+    <t>98,51%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -128,910 +128,925 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,13%</t>
+    <t>2,18%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>97,64%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>97,51%</t>
   </si>
   <si>
     <t>99,92%</t>
@@ -1040,112 +1055,73 @@
     <t>98,29%</t>
   </si>
   <si>
+    <t>99,19%</t>
+  </si>
+  <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51BE389-1013-40B6-BCA4-00A77159E4F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65028E3-F5D4-4EA4-BB08-8B8C48808D07}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2176,13 +2152,13 @@
         <v>2061</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,10 +2173,10 @@
         <v>311433</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -2215,7 +2191,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -2227,10 +2203,10 @@
         <v>456636</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -2289,7 +2265,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2301,13 +2277,13 @@
         <v>5368</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2322,7 +2298,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2331,13 +2307,13 @@
         <v>5368</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,13 +2328,13 @@
         <v>174724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -2370,7 +2346,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>23</v>
@@ -2382,13 +2358,13 @@
         <v>250159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,7 +2420,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2456,13 +2432,13 @@
         <v>1007</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2477,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2486,13 +2462,13 @@
         <v>1007</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,10 +2513,10 @@
         <v>247845</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>21</v>
@@ -2614,10 +2590,10 @@
         <v>49</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2626,13 +2602,13 @@
         <v>2959</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -2644,10 +2620,10 @@
         <v>32</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,10 +2641,10 @@
         <v>57</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H23" s="7">
         <v>870</v>
@@ -2776,7 +2752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A8AB27-E7FA-4F0B-B437-581154A060E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01652562-5353-41F5-8038-501289AEA5DE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2933,10 +2909,10 @@
         <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2927,13 @@
         <v>270367</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>176</v>
@@ -2966,10 +2942,10 @@
         <v>181481</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2981,13 +2957,13 @@
         <v>451848</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3031,13 @@
         <v>13405</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3070,13 +3046,13 @@
         <v>893</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3085,13 +3061,13 @@
         <v>14298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,16 +3079,16 @@
         <v>442</v>
       </c>
       <c r="D8" s="7">
-        <v>454391</v>
+        <v>454392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>199</v>
@@ -3121,10 +3097,10 @@
         <v>210459</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3136,13 +3112,13 @@
         <v>664851</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,7 +3130,7 @@
         <v>456</v>
       </c>
       <c r="D9" s="7">
-        <v>467796</v>
+        <v>467797</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -3210,13 +3186,13 @@
         <v>12818</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3231,7 +3207,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3240,13 +3216,13 @@
         <v>13757</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3237,13 @@
         <v>413385</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -3279,7 +3255,7 @@
         <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3291,10 +3267,10 @@
         <v>655764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>148</v>
@@ -3365,13 +3341,13 @@
         <v>8768</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3380,13 +3356,13 @@
         <v>1027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3395,13 +3371,13 @@
         <v>9795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3392,13 @@
         <v>382229</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -3431,10 +3407,10 @@
         <v>212150</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3446,13 +3422,13 @@
         <v>594379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,7 +3484,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3520,13 +3496,13 @@
         <v>2225</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3535,13 +3511,13 @@
         <v>4094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3550,13 +3526,13 @@
         <v>6319</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,10 +3547,10 @@
         <v>229566</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -3586,10 +3562,10 @@
         <v>108100</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>103</v>
@@ -3601,13 +3577,13 @@
         <v>337665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,7 +3639,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3675,13 +3651,13 @@
         <v>5226</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3696,7 +3672,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3705,13 +3681,13 @@
         <v>5226</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3702,13 @@
         <v>233781</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -3744,7 +3720,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>23</v>
@@ -3756,13 +3732,13 @@
         <v>314665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3806,13 @@
         <v>51661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -3845,13 +3821,13 @@
         <v>8993</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -3860,13 +3836,13 @@
         <v>60654</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3857,13 @@
         <v>1983719</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H23" s="7">
         <v>951</v>
@@ -3896,13 +3872,13 @@
         <v>1035453</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M23" s="7">
         <v>2817</v>
@@ -3911,13 +3887,13 @@
         <v>3019172</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,7 +3971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3891DB9-E5EF-4A21-8D3D-9F93EC5A6885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0814121-8326-4851-8AB2-EEC1DD589370}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4012,7 +3988,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4119,13 +4095,13 @@
         <v>3755</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4134,13 +4110,13 @@
         <v>3028</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4149,13 +4125,13 @@
         <v>6783</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4146,13 @@
         <v>251417</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -4185,13 +4161,13 @@
         <v>169466</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M5" s="7">
         <v>412</v>
@@ -4200,13 +4176,13 @@
         <v>420883</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4250,13 @@
         <v>10457</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4289,13 +4265,13 @@
         <v>1928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4304,13 +4280,13 @@
         <v>12385</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4301,13 @@
         <v>355075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>227</v>
@@ -4340,10 +4316,10 @@
         <v>222708</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4355,13 +4331,13 @@
         <v>577783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4405,13 @@
         <v>9026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4444,13 +4420,13 @@
         <v>1922</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4459,13 +4435,13 @@
         <v>10949</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4456,13 @@
         <v>423216</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>247</v>
@@ -4495,10 +4471,10 @@
         <v>247513</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4510,13 +4486,13 @@
         <v>670728</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4560,13 @@
         <v>8229</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4605,7 +4581,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4614,13 +4590,13 @@
         <v>10445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4611,13 @@
         <v>380535</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -4665,13 +4641,13 @@
         <v>644573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,7 +4703,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4757,7 +4733,7 @@
         <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>258</v>
@@ -4811,7 +4787,7 @@
         <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>358</v>
@@ -4882,7 +4858,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4897,7 +4873,7 @@
         <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>269</v>
@@ -4924,7 +4900,7 @@
         <v>5208</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>272</v>
@@ -4975,7 +4951,7 @@
         <v>370669</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>278</v>
@@ -5052,10 +5028,10 @@
         <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5064,10 +5040,10 @@
         <v>15484</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>283</v>
@@ -5079,7 +5055,7 @@
         <v>55495</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>284</v>
@@ -5103,10 +5079,10 @@
         <v>286</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>287</v>
+        <v>53</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H23" s="7">
         <v>1081</v>
@@ -5115,13 +5091,13 @@
         <v>1129828</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>2938</v>
@@ -5130,7 +5106,7 @@
         <v>3091179</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>290</v>
@@ -5214,7 +5190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F2A19-2795-4777-B0FA-4FB40B37976C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3439E8C0-752F-409A-A79D-CEF3F9591F86}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,10 +5332,10 @@
         <v>294</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5368,13 +5344,13 @@
         <v>4730</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,7 +5368,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5404,13 +5380,13 @@
         <v>106146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
@@ -5419,13 +5395,13 @@
         <v>267361</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5469,13 @@
         <v>1244</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5508,13 +5484,13 @@
         <v>1922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>100</v>
+        <v>308</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>306</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5523,13 +5499,13 @@
         <v>3166</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,7 +5523,7 @@
         <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5559,10 +5535,10 @@
         <v>148233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>311</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5574,13 +5550,13 @@
         <v>374380</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,10 +5627,10 @@
         <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5663,13 +5639,13 @@
         <v>2161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5678,13 +5654,13 @@
         <v>4673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,10 +5678,10 @@
         <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>225</v>
@@ -5714,13 +5690,13 @@
         <v>157185</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>491</v>
@@ -5729,13 +5705,13 @@
         <v>442113</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5779,13 @@
         <v>7812</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5818,13 +5794,13 @@
         <v>1582</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5833,13 +5809,13 @@
         <v>9394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5830,13 @@
         <v>341697</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -5869,13 +5845,13 @@
         <v>198856</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
@@ -5884,13 +5860,13 @@
         <v>540553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,7 +5922,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5958,13 +5934,13 @@
         <v>10301</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5973,13 +5949,13 @@
         <v>3154</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>29</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5991,10 +5967,10 @@
         <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +5985,13 @@
         <v>267967</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>146</v>
       </c>
       <c r="H17" s="7">
         <v>235</v>
@@ -6024,13 +6000,13 @@
         <v>141810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>36</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="M17" s="7">
         <v>527</v>
@@ -6101,7 +6077,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6116,10 +6092,10 @@
         <v>259</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>347</v>
+        <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -6131,10 +6107,10 @@
         <v>47</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>347</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6143,13 +6119,13 @@
         <v>9143</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,10 +6143,10 @@
         <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>198</v>
@@ -6182,10 +6158,10 @@
         <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>21</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>638</v>
@@ -6194,13 +6170,13 @@
         <v>519728</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6244,13 @@
         <v>29077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>354</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -6283,13 +6259,13 @@
         <v>15483</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>359</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>97</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -6298,13 +6274,13 @@
         <v>44561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>362</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,28 +6295,28 @@
         <v>1582375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="H23" s="7">
         <v>1173</v>
       </c>
       <c r="I23" s="7">
-        <v>971538</v>
+        <v>971539</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>365</v>
+        <v>70</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>367</v>
+        <v>103</v>
       </c>
       <c r="M23" s="7">
         <v>2718</v>
@@ -6349,13 +6325,13 @@
         <v>2553913</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>368</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>105</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,7 +6358,7 @@
         <v>1195</v>
       </c>
       <c r="I24" s="7">
-        <v>987021</v>
+        <v>987022</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>23</v>

--- a/data/trans_orig/P32A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5890764E-FE79-40E4-9AAE-31C62EF6EA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFCEE179-4A87-409B-9407-DA0E1711729B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{244EEEB2-4A2C-4EDC-9F58-79B698B31FE5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE2C860B-C3B9-4646-AA1E-6EF56C30DFF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="383">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,23%</t>
+    <t>2,21%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>99,31%</t>
   </si>
   <si>
-    <t>97,77%</t>
+    <t>97,79%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,51%</t>
+    <t>98,55%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -128,997 +128,1063 @@
     <t>0,39%</t>
   </si>
   <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>97,29%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
     <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
   </si>
   <si>
     <t>98,73%</t>
@@ -1533,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65028E3-F5D4-4EA4-BB08-8B8C48808D07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B732AD6F-4D0D-40EC-8159-2EBAEFA1F612}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2152,13 +2218,13 @@
         <v>2061</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,10 +2239,10 @@
         <v>311433</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -2191,7 +2257,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -2203,10 +2269,10 @@
         <v>456636</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -2265,7 +2331,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2277,13 +2343,13 @@
         <v>5368</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2298,7 +2364,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2307,13 +2373,13 @@
         <v>5368</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,13 +2394,13 @@
         <v>174724</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -2346,7 +2412,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>23</v>
@@ -2358,13 +2424,13 @@
         <v>250159</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,7 +2486,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2432,13 +2498,13 @@
         <v>1007</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2453,7 +2519,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2462,13 +2528,13 @@
         <v>1007</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,10 +2579,10 @@
         <v>247845</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>21</v>
@@ -2590,10 +2656,10 @@
         <v>49</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2602,13 +2668,13 @@
         <v>2959</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -2620,10 +2686,10 @@
         <v>32</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,7 +2707,7 @@
         <v>57</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>101</v>
@@ -2665,7 +2731,7 @@
         <v>2696</v>
       </c>
       <c r="N23" s="7">
-        <v>2751355</v>
+        <v>2751356</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2716,7 +2782,7 @@
         <v>2719</v>
       </c>
       <c r="N24" s="7">
-        <v>2774403</v>
+        <v>2774404</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -2752,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01652562-5353-41F5-8038-501289AEA5DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE16C97-5208-426F-9FD9-FAA9D8F30DBB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2912,7 +2978,7 @@
         <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2993,13 @@
         <v>270367</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>176</v>
@@ -2942,10 +3008,10 @@
         <v>181481</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2957,13 +3023,13 @@
         <v>451848</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3097,13 @@
         <v>13405</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3046,13 +3112,13 @@
         <v>893</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3061,13 +3127,13 @@
         <v>14298</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,16 +3145,16 @@
         <v>442</v>
       </c>
       <c r="D8" s="7">
-        <v>454392</v>
+        <v>454391</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>199</v>
@@ -3130,7 +3196,7 @@
         <v>456</v>
       </c>
       <c r="D9" s="7">
-        <v>467797</v>
+        <v>467796</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -3189,10 +3255,10 @@
         <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3207,7 +3273,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3216,13 +3282,13 @@
         <v>13757</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3303,13 @@
         <v>413385</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -3255,7 +3321,7 @@
         <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3267,13 +3333,13 @@
         <v>655764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3407,13 @@
         <v>8768</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3356,13 +3422,13 @@
         <v>1027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3371,13 +3437,13 @@
         <v>9795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3458,13 @@
         <v>382229</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -3407,10 +3473,10 @@
         <v>212150</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3422,13 +3488,13 @@
         <v>594379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,7 +3550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3496,13 +3562,13 @@
         <v>2225</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3511,13 +3577,13 @@
         <v>4094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3526,13 +3592,13 @@
         <v>6319</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,10 +3613,10 @@
         <v>229566</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -3562,13 +3628,13 @@
         <v>108100</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -3577,13 +3643,13 @@
         <v>337665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,7 +3705,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3651,13 +3717,13 @@
         <v>5226</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3672,7 +3738,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3681,13 +3747,13 @@
         <v>5226</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3768,13 @@
         <v>233781</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -3720,7 +3786,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>23</v>
@@ -3732,13 +3798,13 @@
         <v>314665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3872,13 @@
         <v>51661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -3821,13 +3887,13 @@
         <v>8993</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -3836,13 +3902,13 @@
         <v>60654</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3923,13 @@
         <v>1983719</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="H23" s="7">
         <v>951</v>
@@ -3872,13 +3938,13 @@
         <v>1035453</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
         <v>2817</v>
@@ -3887,13 +3953,13 @@
         <v>3019172</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,7 +4037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0814121-8326-4851-8AB2-EEC1DD589370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57379B60-E600-415B-9597-74A8B7A30E40}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3988,7 +4054,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4095,13 +4161,13 @@
         <v>3755</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4110,13 +4176,13 @@
         <v>3028</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4125,13 +4191,13 @@
         <v>6783</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4212,13 @@
         <v>251417</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -4161,13 +4227,13 @@
         <v>169466</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>412</v>
@@ -4176,13 +4242,13 @@
         <v>420883</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4316,13 @@
         <v>10457</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4265,13 +4331,13 @@
         <v>1928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4280,13 +4346,13 @@
         <v>12385</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4367,13 @@
         <v>355075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>227</v>
@@ -4316,10 +4382,10 @@
         <v>222708</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4331,13 +4397,13 @@
         <v>577783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4471,13 @@
         <v>9026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4420,13 +4486,13 @@
         <v>1922</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4435,13 +4501,13 @@
         <v>10949</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4522,13 @@
         <v>423216</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>247</v>
@@ -4471,10 +4537,10 @@
         <v>247513</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4486,13 +4552,13 @@
         <v>670728</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,10 +4656,10 @@
         <v>10445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>248</v>
@@ -4641,13 +4707,13 @@
         <v>644573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,7 +4769,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4718,10 +4784,10 @@
         <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4730,13 +4796,13 @@
         <v>4122</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4745,10 +4811,10 @@
         <v>9725</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>260</v>
@@ -4772,7 +4838,7 @@
         <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -4781,13 +4847,13 @@
         <v>125406</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>358</v>
@@ -4796,13 +4862,13 @@
         <v>406543</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,7 +4924,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4870,13 +4936,13 @@
         <v>2941</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4885,13 +4951,13 @@
         <v>2268</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4900,7 +4966,7 @@
         <v>5208</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>272</v>
@@ -4921,10 +4987,10 @@
         <v>269970</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>102</v>
@@ -4936,10 +5002,10 @@
         <v>100698</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -4951,7 +5017,7 @@
         <v>370669</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>278</v>
@@ -5028,10 +5094,10 @@
         <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5040,13 +5106,13 @@
         <v>15484</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5055,13 +5121,13 @@
         <v>55495</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5142,13 @@
         <v>1961350</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="H23" s="7">
         <v>1081</v>
@@ -5091,13 +5157,13 @@
         <v>1129828</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>2938</v>
@@ -5106,13 +5172,13 @@
         <v>3091179</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,7 +5256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3439E8C0-752F-409A-A79D-CEF3F9591F86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D227198-7FFB-4B51-A7F2-2C2B27A55057}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5207,7 +5273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5320,7 +5386,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5329,13 +5395,13 @@
         <v>4730</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5344,13 +5410,13 @@
         <v>4730</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,7 +5434,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5380,13 +5446,13 @@
         <v>106146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
@@ -5395,13 +5461,13 @@
         <v>267361</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5535,13 @@
         <v>1244</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5484,13 +5550,13 @@
         <v>1922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5499,13 +5565,13 @@
         <v>3166</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,10 +5586,10 @@
         <v>226147</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5535,10 +5601,10 @@
         <v>148233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5550,13 +5616,13 @@
         <v>374380</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,10 +5693,10 @@
         <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5639,13 +5705,13 @@
         <v>2161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>319</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5654,13 +5720,13 @@
         <v>4673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,10 +5744,10 @@
         <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>225</v>
@@ -5690,13 +5756,13 @@
         <v>157185</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M11" s="7">
         <v>491</v>
@@ -5705,13 +5771,13 @@
         <v>442113</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5845,13 @@
         <v>7812</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5794,13 +5860,13 @@
         <v>1582</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5809,13 +5875,13 @@
         <v>9394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5896,13 @@
         <v>341697</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -5845,13 +5911,13 @@
         <v>198856</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
@@ -5860,13 +5926,13 @@
         <v>540553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,7 +5988,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5934,13 +6000,13 @@
         <v>10301</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -5949,13 +6015,13 @@
         <v>3154</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5964,13 +6030,13 @@
         <v>13455</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +6051,13 @@
         <v>267967</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>146</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>235</v>
@@ -6000,13 +6066,13 @@
         <v>141810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>36</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M17" s="7">
         <v>527</v>
@@ -6015,13 +6081,13 @@
         <v>409777</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,7 +6143,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6089,13 +6155,13 @@
         <v>7209</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>143</v>
+        <v>359</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>360</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -6107,10 +6173,10 @@
         <v>47</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6119,13 +6185,13 @@
         <v>9143</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6206,13 @@
         <v>300420</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>365</v>
       </c>
       <c r="H20" s="7">
         <v>198</v>
@@ -6158,10 +6224,10 @@
         <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>638</v>
@@ -6170,13 +6236,13 @@
         <v>519728</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>352</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>263</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6310,13 @@
         <v>29077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -6259,13 +6325,13 @@
         <v>15483</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>371</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>372</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -6274,13 +6340,13 @@
         <v>44561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6361,13 @@
         <v>1582375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="H23" s="7">
         <v>1173</v>
@@ -6310,13 +6376,13 @@
         <v>971539</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>70</v>
+        <v>378</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>103</v>
+        <v>380</v>
       </c>
       <c r="M23" s="7">
         <v>2718</v>
@@ -6325,13 +6391,13 @@
         <v>2553913</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P32A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFCEE179-4A87-409B-9407-DA0E1711729B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{116FD0C6-72A4-4FAE-8CB2-02535D7D9676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE2C860B-C3B9-4646-AA1E-6EF56C30DFF4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9CFABECB-25D9-440F-B0F1-5D397FF1FE55}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="369">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,21%</t>
+    <t>2,41%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,45%</t>
+    <t>1,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>99,31%</t>
   </si>
   <si>
-    <t>97,79%</t>
+    <t>97,59%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,55%</t>
+    <t>98,46%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -128,1066 +128,1024 @@
     <t>0,39%</t>
   </si>
   <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>97,63%</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B732AD6F-4D0D-40EC-8159-2EBAEFA1F612}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714BE305-ADB3-43BD-8C04-2FEFA02C0792}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2656,10 +2614,10 @@
         <v>49</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2707,10 +2665,10 @@
         <v>57</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="H23" s="7">
         <v>870</v>
@@ -2731,7 +2689,7 @@
         <v>2696</v>
       </c>
       <c r="N23" s="7">
-        <v>2751356</v>
+        <v>2751355</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2782,7 +2740,7 @@
         <v>2719</v>
       </c>
       <c r="N24" s="7">
-        <v>2774404</v>
+        <v>2774403</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -2818,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE16C97-5208-426F-9FD9-FAA9D8F30DBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D9C20A-1E88-4B33-99F1-42E48B54FCE9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2975,10 +2933,10 @@
         <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +2984,10 @@
         <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3076,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3127,13 +3085,13 @@
         <v>14298</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3106,13 @@
         <v>454391</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>199</v>
@@ -3163,10 +3121,10 @@
         <v>210459</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3178,13 +3136,13 @@
         <v>664851</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3210,13 @@
         <v>12818</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3273,7 +3231,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3282,13 +3240,13 @@
         <v>13757</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3261,13 @@
         <v>413385</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -3321,7 +3279,7 @@
         <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3333,13 +3291,13 @@
         <v>655764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3365,13 @@
         <v>8768</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3422,13 +3380,13 @@
         <v>1027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3437,13 +3395,13 @@
         <v>9795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3416,13 @@
         <v>382229</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -3473,10 +3431,10 @@
         <v>212150</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3488,13 +3446,13 @@
         <v>594379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3520,13 @@
         <v>2225</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3577,13 +3535,13 @@
         <v>4094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3592,13 +3550,13 @@
         <v>6319</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,10 +3571,10 @@
         <v>229566</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -3628,13 +3586,13 @@
         <v>108100</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -3643,13 +3601,13 @@
         <v>337665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3675,13 @@
         <v>5226</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3738,7 +3696,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3747,13 +3705,13 @@
         <v>5226</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3726,13 @@
         <v>233781</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -3786,7 +3744,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>23</v>
@@ -3798,7 +3756,7 @@
         <v>314665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>189</v>
@@ -3875,10 +3833,10 @@
         <v>191</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -3887,13 +3845,13 @@
         <v>8993</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -3902,13 +3860,13 @@
         <v>60654</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3881,13 @@
         <v>1983719</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="H23" s="7">
         <v>951</v>
@@ -3938,13 +3896,13 @@
         <v>1035453</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="M23" s="7">
         <v>2817</v>
@@ -3953,13 +3911,13 @@
         <v>3019172</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,7 +3995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57379B60-E600-415B-9597-74A8B7A30E40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770FEF28-0CC7-4557-BD2A-23DEB470C4F0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4054,7 +4012,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4161,13 +4119,13 @@
         <v>3755</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4176,13 +4134,13 @@
         <v>3028</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4191,13 +4149,13 @@
         <v>6783</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,10 +4170,10 @@
         <v>251417</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>217</v>
@@ -4331,7 +4289,7 @@
         <v>1928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
@@ -4349,10 +4307,10 @@
         <v>74</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,7 +4340,7 @@
         <v>222708</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>232</v>
@@ -4400,10 +4358,10 @@
         <v>81</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,10 +4432,10 @@
         <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4486,13 +4444,13 @@
         <v>1922</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4501,13 +4459,13 @@
         <v>10949</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4480,13 @@
         <v>423216</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>247</v>
@@ -4537,10 +4495,10 @@
         <v>247513</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4552,13 +4510,13 @@
         <v>670728</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4584,13 @@
         <v>8229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4647,7 +4605,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4656,13 +4614,13 @@
         <v>10445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4635,13 @@
         <v>380535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -4713,7 +4671,7 @@
         <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,10 +4742,10 @@
         <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4796,13 +4754,13 @@
         <v>4122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4811,10 +4769,10 @@
         <v>9725</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>260</v>
@@ -4838,7 +4796,7 @@
         <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -4847,13 +4805,13 @@
         <v>125406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>358</v>
@@ -4862,13 +4820,13 @@
         <v>406543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4894,13 @@
         <v>2941</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4951,13 +4909,13 @@
         <v>2268</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4966,7 +4924,7 @@
         <v>5208</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>272</v>
@@ -4987,10 +4945,10 @@
         <v>269970</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>102</v>
@@ -5002,10 +4960,10 @@
         <v>100698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -5017,7 +4975,7 @@
         <v>370669</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>278</v>
@@ -5094,10 +5052,10 @@
         <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5106,13 +5064,13 @@
         <v>15484</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5121,13 +5079,13 @@
         <v>55495</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>51</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5100,13 @@
         <v>1961350</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="H23" s="7">
         <v>1081</v>
@@ -5157,13 +5115,13 @@
         <v>1129828</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>2938</v>
@@ -5175,10 +5133,10 @@
         <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,7 +5214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D227198-7FFB-4B51-A7F2-2C2B27A55057}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046C336F-7FAC-44C5-A87F-581635C99407}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5273,7 +5231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5386,7 +5344,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5395,13 +5353,13 @@
         <v>4730</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5410,13 +5368,13 @@
         <v>4730</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,7 +5392,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5446,13 +5404,13 @@
         <v>106146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
@@ -5461,13 +5419,13 @@
         <v>267361</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5493,13 @@
         <v>1244</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5550,13 +5508,13 @@
         <v>1922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5565,13 +5523,13 @@
         <v>3166</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,10 +5544,10 @@
         <v>226147</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5601,10 +5559,10 @@
         <v>148233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>316</v>
+        <v>105</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5616,13 +5574,13 @@
         <v>374380</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,10 +5651,10 @@
         <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5705,13 +5663,13 @@
         <v>2161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5720,13 +5678,13 @@
         <v>4673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,10 +5702,10 @@
         <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>225</v>
@@ -5756,13 +5714,13 @@
         <v>157185</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>491</v>
@@ -5771,13 +5729,13 @@
         <v>442113</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>331</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5803,13 @@
         <v>7812</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -5860,13 +5818,13 @@
         <v>1582</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>334</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5875,13 +5833,13 @@
         <v>9394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>338</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5854,13 @@
         <v>341697</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -5911,13 +5869,13 @@
         <v>198856</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>340</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
@@ -5926,13 +5884,13 @@
         <v>540553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>343</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +5958,13 @@
         <v>10301</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6015,13 +5973,13 @@
         <v>3154</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -6030,13 +5988,13 @@
         <v>13455</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6009,13 @@
         <v>267967</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>235</v>
@@ -6066,13 +6024,13 @@
         <v>141810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="M17" s="7">
         <v>527</v>
@@ -6081,13 +6039,13 @@
         <v>409777</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6113,13 @@
         <v>7209</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -6173,10 +6131,10 @@
         <v>47</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6185,13 +6143,13 @@
         <v>9143</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,13 +6164,13 @@
         <v>300420</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="H20" s="7">
         <v>198</v>
@@ -6224,10 +6182,10 @@
         <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="M20" s="7">
         <v>638</v>
@@ -6236,13 +6194,13 @@
         <v>519728</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>53</v>
+        <v>355</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6268,13 @@
         <v>29077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -6325,13 +6283,13 @@
         <v>15483</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -6340,13 +6298,13 @@
         <v>44561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,28 +6319,28 @@
         <v>1582375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>1173</v>
       </c>
       <c r="I23" s="7">
-        <v>971539</v>
+        <v>971538</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="M23" s="7">
         <v>2718</v>
@@ -6391,13 +6349,13 @@
         <v>2553913</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,7 +6382,7 @@
         <v>1195</v>
       </c>
       <c r="I24" s="7">
-        <v>987022</v>
+        <v>987021</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>23</v>

--- a/data/trans_orig/P32A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{116FD0C6-72A4-4FAE-8CB2-02535D7D9676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3D56D00-FC34-4E6E-9C28-11B5AC03F785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9CFABECB-25D9-440F-B0F1-5D397FF1FE55}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CBEA7D47-85D3-4D32-82EF-E7B9D2DFDE42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="398">
   <si>
     <t>Población según si le ha molestado que le critiquen su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -119,7 +119,7 @@
     <t>98,46%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -170,7 +170,7 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,19%</t>
@@ -221,7 +221,7 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -248,7 +248,7 @@
     <t>98,62%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,98%</t>
@@ -293,859 +293,946 @@
     <t>99,24%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2012 (Tasa respuesta: 44,15%)</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Población según si le ha molestado que le critiquen su forma de beber en 2023 (Tasa respuesta: 31,75%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
 </sst>
 </file>
@@ -1557,8 +1644,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714BE305-ADB3-43BD-8C04-2FEFA02C0792}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBBAF75-5685-4FBD-8ECD-EF9C25622BD4}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2450,19 +2537,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2477,22 +2564,22 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1007</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,49 +2588,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="D20" s="7">
-        <v>201927</v>
+        <v>129799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I20" s="7">
-        <v>45918</v>
+        <v>29393</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M20" s="7">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="N20" s="7">
-        <v>247845</v>
+        <v>159191</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,10 +2639,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="D21" s="7">
-        <v>202934</v>
+        <v>129799</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -2567,10 +2654,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I21" s="7">
-        <v>45918</v>
+        <v>29393</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -2582,10 +2669,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="N21" s="7">
-        <v>248852</v>
+        <v>159191</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2599,55 +2686,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>20089</v>
+        <v>1007</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1007</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H22" s="7">
-        <v>3</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2959</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" s="7">
-        <v>23</v>
-      </c>
-      <c r="N22" s="7">
-        <v>23048</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,49 +2743,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1826</v>
+        <v>73</v>
       </c>
       <c r="D23" s="7">
-        <v>1860815</v>
+        <v>72128</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
-        <v>870</v>
+        <v>14</v>
       </c>
       <c r="I23" s="7">
-        <v>890540</v>
+        <v>16525</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="M23" s="7">
-        <v>2696</v>
+        <v>87</v>
       </c>
       <c r="N23" s="7">
-        <v>2751355</v>
+        <v>88653</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,63 +2794,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>74</v>
+      </c>
+      <c r="D24" s="7">
+        <v>73135</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>14</v>
+      </c>
+      <c r="I24" s="7">
+        <v>16525</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>88</v>
+      </c>
+      <c r="N24" s="7">
+        <v>89660</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7">
+        <v>20089</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2959</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" s="7">
+        <v>23</v>
+      </c>
+      <c r="N25" s="7">
+        <v>23048</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1826</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1860815</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="7">
+        <v>870</v>
+      </c>
+      <c r="I26" s="7">
+        <v>890540</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2696</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2751355</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1846</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1880904</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>873</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>893499</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>2719</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2774403</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>107</v>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2776,8 +3019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D9C20A-1E88-4B33-99F1-42E48B54FCE9}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E969DE1-1DE6-4E86-8BC5-7DA750803FAF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2793,7 +3036,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,13 +3143,13 @@
         <v>9219</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2915,13 +3158,13 @@
         <v>2040</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2930,13 +3173,13 @@
         <v>11259</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +3194,13 @@
         <v>270367</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
         <v>176</v>
@@ -2966,10 +3209,10 @@
         <v>181481</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2981,10 +3224,10 @@
         <v>451848</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>68</v>
@@ -3055,13 +3298,13 @@
         <v>13405</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3070,7 +3313,7 @@
         <v>893</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
@@ -3085,13 +3328,13 @@
         <v>14298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,16 +3346,16 @@
         <v>442</v>
       </c>
       <c r="D8" s="7">
-        <v>454391</v>
+        <v>454392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>199</v>
@@ -3121,7 +3364,7 @@
         <v>210459</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>58</v>
@@ -3136,13 +3379,13 @@
         <v>664851</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,7 +3397,7 @@
         <v>456</v>
       </c>
       <c r="D9" s="7">
-        <v>467796</v>
+        <v>467797</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -3210,13 +3453,13 @@
         <v>12818</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3231,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3240,13 +3483,13 @@
         <v>13757</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3504,13 @@
         <v>413385</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -3279,7 +3522,7 @@
         <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3291,13 +3534,13 @@
         <v>655764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3608,13 @@
         <v>8768</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3380,13 +3623,13 @@
         <v>1027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3395,13 +3638,13 @@
         <v>9795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3659,13 @@
         <v>382229</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -3431,10 +3674,10 @@
         <v>212150</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3446,13 +3689,13 @@
         <v>594379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3763,13 @@
         <v>2225</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3535,13 +3778,13 @@
         <v>4094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3550,13 +3793,13 @@
         <v>6319</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,10 +3814,10 @@
         <v>229566</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -3586,13 +3829,13 @@
         <v>108100</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -3601,13 +3844,13 @@
         <v>337665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,19 +3912,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>5226</v>
+        <v>2933</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3696,22 +3939,22 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>5226</v>
+        <v>2933</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,49 +3963,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7">
-        <v>233781</v>
+        <v>150543</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H20" s="7">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I20" s="7">
-        <v>80884</v>
+        <v>56516</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M20" s="7">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="N20" s="7">
-        <v>314665</v>
+        <v>207058</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,10 +4014,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>239007</v>
+        <v>153476</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -3786,10 +4029,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>80884</v>
+        <v>56516</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -3801,10 +4044,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>284</v>
+        <v>188</v>
       </c>
       <c r="N21" s="7">
-        <v>319891</v>
+        <v>209991</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -3818,52 +4061,52 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>51661</v>
+        <v>2294</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>8993</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>60654</v>
+        <v>2294</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>198</v>
@@ -3875,10 +4118,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1866</v>
+        <v>73</v>
       </c>
       <c r="D23" s="7">
-        <v>1983719</v>
+        <v>83238</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>199</v>
@@ -3887,37 +4130,37 @@
         <v>200</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
+        <v>22</v>
+      </c>
+      <c r="I23" s="7">
+        <v>24368</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H23" s="7">
-        <v>951</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1035453</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="7">
+        <v>95</v>
+      </c>
+      <c r="N23" s="7">
+        <v>107606</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="M23" s="7">
-        <v>2817</v>
-      </c>
-      <c r="N23" s="7">
-        <v>3019172</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,63 +4169,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>74</v>
+      </c>
+      <c r="D24" s="7">
+        <v>85532</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>22</v>
+      </c>
+      <c r="I24" s="7">
+        <v>24368</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>96</v>
+      </c>
+      <c r="N24" s="7">
+        <v>109900</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>48</v>
+      </c>
+      <c r="D25" s="7">
+        <v>51661</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="7">
+        <v>8</v>
+      </c>
+      <c r="I25" s="7">
+        <v>8993</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="7">
+        <v>56</v>
+      </c>
+      <c r="N25" s="7">
+        <v>60654</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1866</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1983719</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H26" s="7">
+        <v>951</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1035453</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2817</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3019173</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1914</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2035380</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>959</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1044446</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>2873</v>
       </c>
-      <c r="N24" s="7">
-        <v>3079826</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>107</v>
+      <c r="N27" s="7">
+        <v>3079827</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3995,8 +4394,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770FEF28-0CC7-4557-BD2A-23DEB470C4F0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8E8B5B-A897-4A13-BD57-BFBC4FAEAEB1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4012,7 +4411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4119,13 +4518,13 @@
         <v>3755</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4134,13 +4533,13 @@
         <v>3028</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4149,13 +4548,13 @@
         <v>6783</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4569,13 @@
         <v>251417</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -4185,13 +4584,13 @@
         <v>169466</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>412</v>
@@ -4200,13 +4599,13 @@
         <v>420883</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4673,13 @@
         <v>10457</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4289,13 +4688,13 @@
         <v>1928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4307,10 +4706,10 @@
         <v>74</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4724,13 @@
         <v>355075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>227</v>
@@ -4340,10 +4739,10 @@
         <v>222708</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4358,10 +4757,10 @@
         <v>81</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4828,13 @@
         <v>9026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4444,7 +4843,7 @@
         <v>1922</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
@@ -4459,13 +4858,13 @@
         <v>10949</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4879,13 @@
         <v>423216</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>247</v>
@@ -4495,7 +4894,7 @@
         <v>247513</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>39</v>
@@ -4510,13 +4909,13 @@
         <v>670728</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4983,13 @@
         <v>8229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4605,7 +5004,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4614,13 +5013,13 @@
         <v>10445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +5034,13 @@
         <v>380535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -4653,7 +5052,7 @@
         <v>40</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -4665,13 +5064,13 @@
         <v>644573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +5138,13 @@
         <v>5603</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4754,13 +5153,13 @@
         <v>4122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4769,13 +5168,13 @@
         <v>9725</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +5189,13 @@
         <v>281138</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -4805,13 +5204,13 @@
         <v>125406</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>358</v>
@@ -4820,10 +5219,10 @@
         <v>406543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>57</v>
@@ -4894,43 +5293,43 @@
         <v>2941</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>2268</v>
+        <v>1074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="M19" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>5208</v>
+        <v>4014</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,49 +5338,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="D20" s="7">
-        <v>269970</v>
+        <v>174543</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="I20" s="7">
-        <v>100698</v>
+        <v>65318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="7">
-        <v>363</v>
+        <v>229</v>
       </c>
       <c r="N20" s="7">
-        <v>370669</v>
+        <v>239862</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,10 +5389,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>283</v>
+        <v>173</v>
       </c>
       <c r="D21" s="7">
-        <v>272911</v>
+        <v>177484</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -5005,10 +5404,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I21" s="7">
-        <v>102966</v>
+        <v>66392</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -5020,10 +5419,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>368</v>
+        <v>233</v>
       </c>
       <c r="N21" s="7">
-        <v>375877</v>
+        <v>243876</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -5037,55 +5436,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>40012</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="H22" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>15484</v>
+        <v>1194</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>55495</v>
+        <v>1194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,49 +5493,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1857</v>
+        <v>110</v>
       </c>
       <c r="D23" s="7">
-        <v>1961350</v>
+        <v>95427</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>286</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
-        <v>1081</v>
+        <v>24</v>
       </c>
       <c r="I23" s="7">
-        <v>1129828</v>
+        <v>35381</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
-        <v>2938</v>
+        <v>134</v>
       </c>
       <c r="N23" s="7">
-        <v>3091179</v>
+        <v>130807</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,63 +5544,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>110</v>
+      </c>
+      <c r="D24" s="7">
+        <v>95427</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>25</v>
+      </c>
+      <c r="I24" s="7">
+        <v>36575</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>135</v>
+      </c>
+      <c r="N24" s="7">
+        <v>132001</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>37</v>
+      </c>
+      <c r="D25" s="7">
+        <v>40012</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H25" s="7">
+        <v>14</v>
+      </c>
+      <c r="I25" s="7">
+        <v>15484</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M25" s="7">
+        <v>51</v>
+      </c>
+      <c r="N25" s="7">
+        <v>55495</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1857</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1961350</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1081</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1129828</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2938</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3091179</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1894</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2001362</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>1095</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1145312</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>2989</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3146674</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>107</v>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5214,8 +5769,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046C336F-7FAC-44C5-A87F-581635C99407}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE37B3C-0FE5-4873-9254-76D4062A4632}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5231,7 +5786,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5344,37 +5899,37 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>4730</v>
+        <v>4164</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>4730</v>
+        <v>4164</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5941,13 @@
         <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>161216</v>
+        <v>169903</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5401,31 +5956,31 @@
         <v>62</v>
       </c>
       <c r="I5" s="7">
-        <v>106146</v>
+        <v>94918</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
       </c>
       <c r="N5" s="7">
-        <v>267361</v>
+        <v>264821</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,7 +5992,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>161216</v>
+        <v>169903</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -5452,7 +6007,7 @@
         <v>66</v>
       </c>
       <c r="I6" s="7">
-        <v>110876</v>
+        <v>99082</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -5467,7 +6022,7 @@
         <v>136</v>
       </c>
       <c r="N6" s="7">
-        <v>272091</v>
+        <v>268985</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -5490,46 +6045,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1244</v>
+        <v>1558</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1922</v>
+        <v>1751</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>3166</v>
+        <v>3309</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +6096,13 @@
         <v>154</v>
       </c>
       <c r="D8" s="7">
-        <v>226147</v>
+        <v>228577</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5556,13 +6111,13 @@
         <v>138</v>
       </c>
       <c r="I8" s="7">
-        <v>148233</v>
+        <v>138961</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>105</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5571,16 +6126,16 @@
         <v>292</v>
       </c>
       <c r="N8" s="7">
-        <v>374380</v>
+        <v>367538</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +6147,7 @@
         <v>155</v>
       </c>
       <c r="D9" s="7">
-        <v>227391</v>
+        <v>230135</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -5607,7 +6162,7 @@
         <v>140</v>
       </c>
       <c r="I9" s="7">
-        <v>150155</v>
+        <v>140712</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -5622,7 +6177,7 @@
         <v>295</v>
       </c>
       <c r="N9" s="7">
-        <v>377546</v>
+        <v>370847</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -5645,46 +6200,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2511</v>
+        <v>2345</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>2161</v>
+        <v>1952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>4673</v>
+        <v>4297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,46 +6251,46 @@
         <v>266</v>
       </c>
       <c r="D11" s="7">
-        <v>284929</v>
+        <v>278813</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>225</v>
       </c>
       <c r="I11" s="7">
-        <v>157185</v>
+        <v>148138</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>491</v>
       </c>
       <c r="N11" s="7">
-        <v>442113</v>
+        <v>426951</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,7 +6302,7 @@
         <v>269</v>
       </c>
       <c r="D12" s="7">
-        <v>287440</v>
+        <v>281158</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -5762,7 +6317,7 @@
         <v>228</v>
       </c>
       <c r="I12" s="7">
-        <v>159346</v>
+        <v>150090</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -5777,7 +6332,7 @@
         <v>497</v>
       </c>
       <c r="N12" s="7">
-        <v>446786</v>
+        <v>431248</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -5800,46 +6355,46 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>7812</v>
+        <v>7422</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>149</v>
+        <v>346</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>1582</v>
+        <v>1477</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>9394</v>
+        <v>8899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,46 +6406,46 @@
         <v>323</v>
       </c>
       <c r="D14" s="7">
-        <v>341697</v>
+        <v>332738</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>353</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
       </c>
       <c r="I14" s="7">
-        <v>198856</v>
+        <v>186766</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>638</v>
       </c>
       <c r="N14" s="7">
-        <v>540553</v>
+        <v>519504</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,7 +6457,7 @@
         <v>331</v>
       </c>
       <c r="D15" s="7">
-        <v>349509</v>
+        <v>340160</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -5917,7 +6472,7 @@
         <v>318</v>
       </c>
       <c r="I15" s="7">
-        <v>200438</v>
+        <v>188243</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -5932,7 +6487,7 @@
         <v>649</v>
       </c>
       <c r="N15" s="7">
-        <v>549947</v>
+        <v>528403</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -5955,46 +6510,46 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>10301</v>
+        <v>9846</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>3154</v>
+        <v>2915</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>13455</v>
+        <v>12761</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,28 +6561,28 @@
         <v>292</v>
       </c>
       <c r="D17" s="7">
-        <v>267967</v>
+        <v>253006</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>235</v>
       </c>
       <c r="I17" s="7">
-        <v>141810</v>
+        <v>131842</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>40</v>
@@ -6036,16 +6591,16 @@
         <v>527</v>
       </c>
       <c r="N17" s="7">
-        <v>409777</v>
+        <v>384847</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,7 +6612,7 @@
         <v>304</v>
       </c>
       <c r="D18" s="7">
-        <v>278268</v>
+        <v>262852</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -6072,7 +6627,7 @@
         <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>144964</v>
+        <v>134757</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -6087,7 +6642,7 @@
         <v>544</v>
       </c>
       <c r="N18" s="7">
-        <v>423232</v>
+        <v>397608</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -6107,49 +6662,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>7209</v>
+        <v>4435</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1934</v>
+        <v>1273</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="M19" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>9143</v>
+        <v>5708</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>351</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,49 +6713,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>440</v>
+        <v>279</v>
       </c>
       <c r="D20" s="7">
-        <v>300420</v>
+        <v>184860</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="I20" s="7">
-        <v>219308</v>
+        <v>277533</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="7">
-        <v>638</v>
+        <v>425</v>
       </c>
       <c r="N20" s="7">
-        <v>519728</v>
+        <v>462392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>355</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,10 +6764,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>452</v>
+        <v>287</v>
       </c>
       <c r="D21" s="7">
-        <v>307629</v>
+        <v>189295</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -6224,10 +6779,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="I21" s="7">
-        <v>221242</v>
+        <v>278806</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -6239,10 +6794,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>655</v>
+        <v>436</v>
       </c>
       <c r="N21" s="7">
-        <v>528871</v>
+        <v>468100</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -6256,55 +6811,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>29077</v>
+        <v>2383</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="H22" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>15483</v>
+        <v>564</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>359</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>44561</v>
+        <v>2947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,49 +6868,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1545</v>
+        <v>161</v>
       </c>
       <c r="D23" s="7">
-        <v>1582375</v>
+        <v>97652</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="H23" s="7">
-        <v>1173</v>
+        <v>52</v>
       </c>
       <c r="I23" s="7">
-        <v>971538</v>
+        <v>26191</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>365</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>367</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
-        <v>2718</v>
+        <v>213</v>
       </c>
       <c r="N23" s="7">
-        <v>2553913</v>
+        <v>123844</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,63 +6919,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>165</v>
+      </c>
+      <c r="D24" s="7">
+        <v>100035</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>54</v>
+      </c>
+      <c r="I24" s="7">
+        <v>26755</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>219</v>
+      </c>
+      <c r="N24" s="7">
+        <v>126791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>36</v>
+      </c>
+      <c r="D25" s="7">
+        <v>27988</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H25" s="7">
+        <v>22</v>
+      </c>
+      <c r="I25" s="7">
+        <v>14096</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="7">
+        <v>58</v>
+      </c>
+      <c r="N25" s="7">
+        <v>42084</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1545</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1545549</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1173</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1004348</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2718</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2549897</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1581</v>
       </c>
-      <c r="D24" s="7">
-        <v>1611452</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1573537</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>1195</v>
       </c>
-      <c r="I24" s="7">
-        <v>987021</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1018444</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>2776</v>
       </c>
-      <c r="N24" s="7">
-        <v>2598474</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>107</v>
+      <c r="N27" s="7">
+        <v>2591981</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
